--- a/data/trans_bre/P38C-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Provincia-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">

--- a/data/trans_bre/P38C-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,31%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,68; 13,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 4,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,37; 20,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 4,44</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,29%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,13; 10,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,6; 14,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,54; 11,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,05; 19,89</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,89%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 7,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,33; 7,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; 8,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 8,54</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,97%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,72; 2,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,75; 8,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,0; 3,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,1; 10,83</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,61%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,79; 18,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 12,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,08; 25,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 17,02</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,88%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 13,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 5,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 17,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 5,62</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,43</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,74%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,05; 14,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,38; 14,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,11; 23,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,33; 19,02</t>
         </is>
       </c>
     </row>
@@ -1001,22 +1001,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,22</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,54%</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,5; 8,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,15; 21,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,74; 9,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,44; 44,56</t>
         </is>
       </c>
     </row>
@@ -1061,22 +1061,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,64%</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,13; 7,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,0; 12,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,96; 9,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,19; 16,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38C-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Provincia-trans_bre.xlsx
@@ -586,7 +586,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,47%</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,21</t>
+          <t>-1,01; 4,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,44</t>
+          <t>-1,04; 4,9</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,56</t>
+          <t>10,12</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>13,62%</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 14,26</t>
+          <t>3,08; 16,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 19,89</t>
+          <t>4,19; 23,36</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>4,14%</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 7,74</t>
+          <t>0,51; 8,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 8,54</t>
+          <t>0,45; 9,08</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>-7,35</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>-8,54%</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 8,9</t>
+          <t>-42,4; 8,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 10,83</t>
+          <t>-46,45; 10,1</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>8,18%</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 12,96</t>
+          <t>-0,14; 13,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 17,02</t>
+          <t>0,12; 17,37</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 5,2</t>
+          <t>-1,26; 5,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 5,62</t>
+          <t>-1,29; 5,91</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,71</t>
+          <t>11,86</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>14,58%</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,38; 14,95</t>
+          <t>6,97; 19,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,33; 19,02</t>
+          <t>8,24; 25,39</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11,22</t>
+          <t>24,39</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>53,87%</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,15; 21,11</t>
+          <t>6,8; 50,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,44; 44,56</t>
+          <t>10,7; 255,56</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>7,6</t>
+          <t>11,63</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>15,58%</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,0; 12,2</t>
+          <t>3,95; 28,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,19; 16,46</t>
+          <t>4,88; 48,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38C-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Provincia-trans_bre.xlsx
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -609,29 +609,29 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 13,16</t>
+          <t>-2,82; 13,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 4,62</t>
+          <t>-0,97; 4,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 20,22</t>
+          <t>-3,92; 20,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 4,9</t>
+          <t>-0,98; 5,15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 10,06</t>
+          <t>2,69; 10,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 16,11</t>
+          <t>2,99; 17,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,54; 11,87</t>
+          <t>3,06; 12,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 23,36</t>
+          <t>3,67; 25,21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 7,38</t>
+          <t>-1,31; 7,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 8,29</t>
+          <t>0,95; 8,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 8,53</t>
+          <t>-1,39; 8,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 9,08</t>
+          <t>1,03; 9,11</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 2,91</t>
+          <t>-5,16; 3,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-42,4; 8,48</t>
+          <t>-37,71; 8,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 3,24</t>
+          <t>-5,51; 3,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,45; 10,1</t>
+          <t>-40,79; 10,16</t>
         </is>
       </c>
     </row>
@@ -849,29 +849,29 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,79; 18,05</t>
+          <t>4,95; 18,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 13,12</t>
+          <t>-0,37; 13,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,08; 25,26</t>
+          <t>6,02; 25,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,12; 17,37</t>
+          <t>-0,42; 18,25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -909,29 +909,29 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,41; 13,2</t>
+          <t>0,26; 13,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 5,5</t>
+          <t>-1,12; 6,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,46; 17,13</t>
+          <t>0,35; 17,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 5,91</t>
+          <t>-1,14; 7,08</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,05; 14,47</t>
+          <t>4,81; 14,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,97; 19,26</t>
+          <t>6,99; 18,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,11; 23,86</t>
+          <t>6,93; 24,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,24; 25,39</t>
+          <t>8,34; 24,83</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,5; 8,12</t>
+          <t>2,37; 8,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,8; 50,41</t>
+          <t>6,56; 48,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,74; 9,32</t>
+          <t>2,61; 9,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,7; 255,56</t>
+          <t>10,55; 237,97</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,13; 7,79</t>
+          <t>4,26; 7,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,95; 28,43</t>
+          <t>4,76; 28,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,96; 9,61</t>
+          <t>5,19; 9,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,88; 48,71</t>
+          <t>6,03; 51,8</t>
         </is>
       </c>
     </row>
